--- a/temp/pages/StructureDefinition-veterinarian.xlsx
+++ b/temp/pages/StructureDefinition-veterinarian.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T00:12:12+02:00</t>
+    <t>2023-04-12T00:16:09+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-veterinarian.xlsx
+++ b/temp/pages/StructureDefinition-veterinarian.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T00:16:09+02:00</t>
+    <t>2023-04-12T00:18:56+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-veterinarian.xlsx
+++ b/temp/pages/StructureDefinition-veterinarian.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T00:18:56+02:00</t>
+    <t>2023-04-12T07:47:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
